--- a/Tables/Performance.xlsx
+++ b/Tables/Performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarthak\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\DMProject\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>performers</t>
   </si>
   <si>
     <t>performance_type</t>
+  </si>
+  <si>
+    <t>show_id</t>
+  </si>
+  <si>
+    <t>'The Wooster Group'</t>
+  </si>
+  <si>
+    <t>'The Wooster Group</t>
+  </si>
+  <si>
+    <t>'Prospect Theater Company'</t>
+  </si>
+  <si>
+    <t>'Playwrights Horizons'</t>
+  </si>
+  <si>
+    <t>'Two River Theater Company'</t>
+  </si>
+  <si>
+    <t>'The Public Theater Group'</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>'Natalie Dessay'</t>
+  </si>
+  <si>
+    <t>Play/Drama</t>
+  </si>
+  <si>
+    <t>'Jabba WockeeZ Group'</t>
+  </si>
+  <si>
+    <t>Magic Show</t>
+  </si>
+  <si>
+    <t>'David Blaine'</t>
+  </si>
+  <si>
+    <t>'The Pink Flamingoes'</t>
   </si>
 </sst>
 </file>
@@ -65,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,24 +427,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
